--- a/DSA Foundation Question Bank for Practice.xlsx
+++ b/DSA Foundation Question Bank for Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\DSA\GDSC DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1D1A9-4A32-49CD-BCE5-C77DD9F18317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F6E06C-A9E3-4AA2-9D0C-0143190BB20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>WEEK 1 - Arrays</t>
   </si>
@@ -98,13 +98,37 @@
   </si>
   <si>
     <t>Hint</t>
+  </si>
+  <si>
+    <t>TLE</t>
+  </si>
+  <si>
+    <t>binary search modif</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>umm way?</t>
+  </si>
+  <si>
+    <t>insertion sort se hint ig</t>
+  </si>
+  <si>
+    <t>time: o(n),  space: o(1)</t>
+  </si>
+  <si>
+    <t>o(logn)</t>
+  </si>
+  <si>
+    <t>not complete logic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -132,6 +156,19 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -222,10 +259,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,8 +291,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,8 +525,8 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -487,10 +539,10 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -563,44 +615,74 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -616,8 +698,13 @@
     <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="A12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A17" r:id="rId11" xr:uid="{5E7707EA-6455-4456-95C2-4EE28CC651DC}"/>
+    <hyperlink ref="A18" r:id="rId12" xr:uid="{DC71F810-B147-47CD-B279-F776D2C69242}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{882BF3B6-C6E3-4F16-A05F-FDB6467D7A61}"/>
+    <hyperlink ref="A22" r:id="rId14" xr:uid="{0B9976AE-703B-4926-B8AD-47B0FD8CA80A}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{69428FEF-A71A-4255-8D8E-7201E78AAB88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/DSA Foundation Question Bank for Practice.xlsx
+++ b/DSA Foundation Question Bank for Practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\DSA\GDSC DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088810C-AF19-489F-A362-959A7E1892A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A534A5-7517-4C9B-9884-C7DB53CB6C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>WEEK 1 - Arrays</t>
   </si>
@@ -53,13 +53,208 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>case [1 1 2 2 3 3 ]</t>
+  </si>
+  <si>
+    <t>optimize</t>
+  </si>
+  <si>
+    <t>didn't accept, dk</t>
+  </si>
+  <si>
+    <t>alter binary se?</t>
+  </si>
+  <si>
+    <t>WEEK 2 - Arrays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/ease-the-array0633/1/?category[]=Arrays&amp;category[]=Arrays&amp;difficulty[]=0&amp;page=3&amp;query=category[]Arraysdifficulty[]0page3category[]Arrays</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/smallest-positive-missing-number3051/1/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/&amp;sa=D&amp;source=editors&amp;ust=1632669032012000&amp;usg=AOvVaw0VULnhxEDPrafqQXGaNJoI</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-insert-position/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/subarray-with-given-sum-1587115621/1</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>TLE</t>
+  </si>
+  <si>
+    <t>binary search modif</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>umm way?</t>
+  </si>
+  <si>
+    <t>insertion sort se hint ig</t>
+  </si>
+  <si>
+    <t>time: o(n),  space: o(1)</t>
+  </si>
+  <si>
+    <t>o(logn)</t>
+  </si>
+  <si>
+    <t>not complete logic</t>
+  </si>
+  <si>
+    <t>WEEK 3 - Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/maximum-occuring-character-1587115620/1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/count-number-of-words1500/1 </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.hackerearth.com/practice/basic-programming/input-output/basics-of-input-output/practice-problems/algorithm/modify-the-string/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/spiral-matrix-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/determine-whether-matrix-can-be-obtained-by-rotation/</t>
+  </si>
+  <si>
+    <t>WEEK- 4 Recursion</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-two/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fibonacci-number/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/factorial5739/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/print-1-to-n-without-using-loops3621/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/tower-of-hanoi-1587115621/1</t>
+  </si>
+  <si>
+    <t>didn't do using recursion</t>
+  </si>
+  <si>
+    <t>see bit vala method, that's good</t>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <t>62. Unique Paths</t>
+  </si>
+  <si>
+    <t>70. Climbing Stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/super-pow/ </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/n-th-tribonacci-number/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/permutations/ </t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>OWN</t>
+  </si>
+  <si>
+    <t>bro, asf has to be catched too, sirf parameter mei pass krne se ans return stack mei kho jaega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/next-permutation/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/permutations-ii/ </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-sequence/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/combinations/ </t>
+  </si>
+  <si>
+    <t>Reason/ Hint</t>
+  </si>
+  <si>
+    <t>Similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/permutations/discuss/18239/A-general-approach-to-backtracking-questions-in-Java-(Subsets-Permutations-Combination-Sum-Palindrome-Partioning) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/palindrome-permutation-ii/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/minimum-adjacent-swaps-to-reach-the-kth-smallest-number/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/number-of-squareful-arrays/ </t>
+  </si>
+  <si>
+    <t>compare both</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -77,8 +272,67 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF424242"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFA726"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,8 +345,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -115,18 +399,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,67 +757,434 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:A12"/>
+  <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="3" customWidth="1"/>
+    <col min="6" max="8" width="14.44140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -418,7 +1199,40 @@
     <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="A12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A17" r:id="rId11" xr:uid="{5E7707EA-6455-4456-95C2-4EE28CC651DC}"/>
+    <hyperlink ref="A18" r:id="rId12" xr:uid="{DC71F810-B147-47CD-B279-F776D2C69242}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{882BF3B6-C6E3-4F16-A05F-FDB6467D7A61}"/>
+    <hyperlink ref="A22" r:id="rId14" xr:uid="{0B9976AE-703B-4926-B8AD-47B0FD8CA80A}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{69428FEF-A71A-4255-8D8E-7201E78AAB88}"/>
+    <hyperlink ref="A26" r:id="rId16" xr:uid="{D7050A86-DA40-4F46-88C3-A340A986569A}"/>
+    <hyperlink ref="A27" r:id="rId17" display="https://practice.geeksforgeeks.org/problems/count-number-of-words1500/1" xr:uid="{B9A7A417-9655-4440-9E3E-418B49C82ECF}"/>
+    <hyperlink ref="A28" r:id="rId18" xr:uid="{64B79888-F53B-457A-BEE0-0343DEA8B034}"/>
+    <hyperlink ref="A29" r:id="rId19" display="https://www.hackerearth.com/practice/basic-programming/input-output/basics-of-input-output/practice-problems/algorithm/modify-the-string/" xr:uid="{ADC6EBFF-C605-4692-A875-53DCC104BFA2}"/>
+    <hyperlink ref="A33" r:id="rId20" xr:uid="{1756FBCD-891E-4383-AC0C-BE9C9DE82B9F}"/>
+    <hyperlink ref="A32" r:id="rId21" xr:uid="{19E42259-2615-4264-856D-A3F7B4EFC151}"/>
+    <hyperlink ref="A30" r:id="rId22" xr:uid="{E2AC2321-D7AD-4AC1-B7CF-3F1292E748A8}"/>
+    <hyperlink ref="A40" r:id="rId23" xr:uid="{300B249E-BA61-47A2-A5F4-CE24AD2B8AEF}"/>
+    <hyperlink ref="A41" r:id="rId24" xr:uid="{E16E5D53-8CDB-4B12-845F-2850FB4070B1}"/>
+    <hyperlink ref="A37" r:id="rId25" xr:uid="{C7DEF754-C61F-4531-93D9-EC6C89EE6335}"/>
+    <hyperlink ref="A38" r:id="rId26" xr:uid="{D567F677-3E4A-43DC-9CB9-3DDAD7703724}"/>
+    <hyperlink ref="C38" r:id="rId27" display="https://leetcode.com/problems/decode-ways" xr:uid="{A07DBFF0-ED78-4F18-BC72-71D5FB3460F0}"/>
+    <hyperlink ref="D38" r:id="rId28" display="https://leetcode.com/problems/unique-paths/" xr:uid="{F2980ACE-7304-41C6-B5AC-68B3B728D3DF}"/>
+    <hyperlink ref="E38" r:id="rId29" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{EE61BEE3-F69A-454B-B3F8-DE865DAEA8D8}"/>
+    <hyperlink ref="A39" r:id="rId30" xr:uid="{883C023F-DCED-4BEF-AE33-6A5EB89BC1A5}"/>
+    <hyperlink ref="A15" r:id="rId31" xr:uid="{D16194B9-1612-4049-B3B4-5EC0EDAE8234}"/>
+    <hyperlink ref="C37" r:id="rId32" xr:uid="{B9B50370-E5F0-481B-A0B0-E6C4B8BD3040}"/>
+    <hyperlink ref="D37" r:id="rId33" xr:uid="{1B08B020-45C5-43D9-A5D5-4B92A2772E5E}"/>
+    <hyperlink ref="A44" r:id="rId34" xr:uid="{B6EE6F69-73AA-465A-8222-A149958EFCE4}"/>
+    <hyperlink ref="C44" r:id="rId35" xr:uid="{CEE51207-4628-4B54-BE21-FED8C874B2A2}"/>
+    <hyperlink ref="D44" r:id="rId36" xr:uid="{9860728D-478E-482C-9F6B-7039A0CFE892}"/>
+    <hyperlink ref="E44" r:id="rId37" xr:uid="{CB986BD7-9639-4CD8-A434-FC3571858BDF}"/>
+    <hyperlink ref="F44" r:id="rId38" xr:uid="{6FA0BDF8-4506-47E1-9D42-B9CE946ED247}"/>
+    <hyperlink ref="C45" r:id="rId39" xr:uid="{9B3EDEE7-EDC5-4AC5-B352-59849F330F82}"/>
+    <hyperlink ref="G44" r:id="rId40" xr:uid="{81DB2C76-496A-481C-A49A-CF71C30D1CC9}"/>
+    <hyperlink ref="H44" r:id="rId41" xr:uid="{5C338147-41C0-42AE-A56C-E2C9E4B06988}"/>
+    <hyperlink ref="I44" r:id="rId42" xr:uid="{C8B018AD-2B5F-4A5C-8564-10803106E87A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>